--- a/data/trans_camb/P2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-7,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-4,55</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 0,57</t>
+          <t>-35,21; 2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 3,61</t>
+          <t>-15,38; 3,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 3,15</t>
+          <t>-15,17; 4,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,22</t>
+          <t>1,13; 11,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 1,7</t>
+          <t>-8,16; 3,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,9</t>
+          <t>-4,64; 5,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 0,17</t>
+          <t>-2,79; 6,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 1,19</t>
+          <t>-2,84; 7,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 1,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-16,08; 0,88</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 2,38</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 3,5</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 6,77</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-4,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-0,41%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 0,5</t>
+          <t>-36,75; 2,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 3,86</t>
+          <t>-16,15; 3,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 3,38</t>
+          <t>-16,16; 4,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,82</t>
+          <t>1,15; 13,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 1,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 1,81</t>
+          <t>-8,56; 3,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,09</t>
+          <t>-4,7; 5,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 0,18</t>
+          <t>-2,89; 7,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 1,25</t>
+          <t>-2,89; 8,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-17,1; 0,85</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 2,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 3,77</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 7,49</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>-1,05</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,65</t>
+          <t>-3,64; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,09</t>
+          <t>-2,59; 3,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,85</t>
+          <t>-5,39; 0,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 0,75</t>
+          <t>-3,98; 2,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 0,08</t>
+          <t>-3,55; 5,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,71</t>
+          <t>-5,88; 3,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,36</t>
+          <t>-6,51; 2,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,9</t>
+          <t>-5,75; 4,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 3,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 2,0</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 0,47</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 2,98</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-2,33%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-2,18%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-3,05%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>-0,2%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,63%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,91%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,67%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,1%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-3,21%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,34%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-0,57%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-1,11%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-2,35%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-2,58%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-0,6%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,79</t>
+          <t>-3,7; 2,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,2</t>
+          <t>-2,62; 3,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,93</t>
+          <t>-5,5; 0,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,79</t>
+          <t>-4,06; 2,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 0,08</t>
+          <t>-3,72; 6,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 6,17</t>
+          <t>-6,09; 4,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,44</t>
+          <t>-6,77; 3,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,95</t>
+          <t>-6,1; 5,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 3,38</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 2,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 0,49</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 3,18</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,29</t>
+          <t>-3,41; 6,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,33</t>
+          <t>-2,7; 6,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,89</t>
+          <t>-2,67; 6,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,21</t>
+          <t>-3,77; 6,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -1,35</t>
+          <t>-6,39; 1,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -0,71</t>
+          <t>-5,89; 0,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,45</t>
+          <t>-7,27; -0,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,58</t>
+          <t>-5,83; 1,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 2,4</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 2,5</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 1,64</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 2,04</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>-2,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,11%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-2,79%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,89%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-1,49%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-0,84%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 3,55</t>
+          <t>-3,59; 7,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,6</t>
+          <t>-2,85; 7,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 4,25</t>
+          <t>-2,77; 7,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,71</t>
+          <t>-3,96; 7,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 1,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -1,42</t>
+          <t>-6,59; 1,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -0,76</t>
+          <t>-6,12; 0,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,54</t>
+          <t>-7,48; -0,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,67</t>
+          <t>-6,09; 1,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 1,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 2,6</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 2,7</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 1,77</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 2,18</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 1,03</t>
+          <t>-1,4; 3,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,56</t>
+          <t>-3,92; 2,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,97</t>
+          <t>-3,11; 2,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,18</t>
+          <t>-3,96; 1,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,26</t>
+          <t>-1,97; 3,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,36</t>
+          <t>-1,79; 3,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 1,67</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 2,18</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 2,19</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,01%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,09</t>
+          <t>-1,46; 3,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,65</t>
+          <t>-4,08; 3,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,09</t>
+          <t>-3,24; 2,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -1,25</t>
+          <t>-4,14; 1,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,41</t>
+          <t>-2,06; 3,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,38</t>
+          <t>-1,88; 3,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-4,68; -0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 1,78</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 2,32</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 2,31</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 1,63</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 1,69</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 0,87</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 2,35</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 0,39</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 0,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; -0,57</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 1,46</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 0,56</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 0,58</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; -0,53</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 1,46</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,22%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-1,34%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,49%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,28%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-0,79%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 1,73</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 1,8</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 0,92</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 2,51</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 0,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 0,4</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; -0,62</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 1,55</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 0,6</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 0,62</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; -0,56</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 1,54</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
